--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>654921.9151672341</v>
+        <v>655271.7483466016</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238722</v>
+        <v>2688149.654238723</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461763</v>
+        <v>8966943.13846177</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7763237.753817891</v>
+        <v>7746177.077014608</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>176.3115929708433</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>396.6203742018772</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>165.8714844395199</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -832,13 +834,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -956,13 +958,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>14.15945239161361</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>283.9589115366733</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1111,7 +1113,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.0363847091458</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>61.02047275332036</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>9.561866217491776</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1348,10 +1350,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>28.90581645994664</v>
+        <v>349.74803638912</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
@@ -1549,7 +1551,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>75.77815427270274</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.5806213200728</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>87.95308749070816</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>227.0453911548973</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>289.1043232126777</v>
       </c>
     </row>
     <row r="18">
@@ -2053,16 +2055,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>23.07869429521003</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>149.9890778405621</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>234.9396379376617</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -2135,19 +2137,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2244,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>24.62728190311237</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>11.61260049965533</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -2369,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>147.713978246434</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>334.4270276753883</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -2491,13 +2493,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>33.38623034306661</v>
       </c>
       <c r="I25" t="n">
-        <v>108.1045920014101</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>302.1480073738686</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2621,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>75.55566364162141</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>27.55151359234004</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -2804,10 +2806,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>233.2385090293387</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>123.077193497709</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.56977554305671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>108.8247535352254</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -3089,10 +3091,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>338.6041155698975</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>92.65523704301675</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>39.19550843742099</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
@@ -3284,7 +3286,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -3329,10 +3331,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>348.2239456576307</v>
       </c>
       <c r="Y35" t="n">
-        <v>378.116723629329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>130.4178928586277</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>66.03149870010071</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>137.4490875962152</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -3515,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>104.8081591628306</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.126850821345508</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
@@ -3715,7 +3717,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>19.85905444009087</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>43.21142158825045</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
@@ -3788,22 +3790,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>195.6255244520054</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>62.41446265417508</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3979,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>302.1480073738686</v>
       </c>
       <c r="W44" t="n">
-        <v>298.82187832452</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -4144,16 +4146,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>20.25064477991757</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>610.8466170372428</v>
+        <v>1226.556240989902</v>
       </c>
       <c r="C2" t="n">
-        <v>610.8466170372428</v>
+        <v>833.3807394928326</v>
       </c>
       <c r="D2" t="n">
-        <v>225.4054882539106</v>
+        <v>447.9396107095004</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154361</v>
+        <v>447.9396107095004</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L2" t="n">
         <v>540.6332618200724</v>
       </c>
       <c r="M2" t="n">
-        <v>1086.634161864653</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N2" t="n">
-        <v>1614.445445502115</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W2" t="n">
-        <v>1396.789931183585</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="X2" t="n">
-        <v>1007.337326116642</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="Y2" t="n">
-        <v>610.8466170372428</v>
+        <v>1627.050986701299</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083089</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4452,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>215.567024002098</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4531,7 +4533,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1325.47941783804</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="C5" t="n">
-        <v>1325.47941783804</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="D5" t="n">
-        <v>1325.47941783804</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="E5" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>1937.641433863169</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U5" t="n">
-        <v>1681.888704297768</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V5" t="n">
-        <v>1339.781895001287</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W5" t="n">
-        <v>1325.47941783804</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="X5" t="n">
-        <v>1325.47941783804</v>
+        <v>1257.461180404336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1325.47941783804</v>
+        <v>860.9704713249373</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.492043226187</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1814.990048232789</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4689,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4759,16 +4761,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1150.012650815455</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="C8" t="n">
-        <v>756.8371493183852</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D8" t="n">
-        <v>371.396020535053</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E8" t="n">
-        <v>371.396020535053</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2304.011663912209</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1961.904854615728</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.65655633099</v>
+        <v>1590.905819584015</v>
       </c>
       <c r="X8" t="n">
-        <v>1946.99810560625</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.507396526852</v>
+        <v>1201.453214517072</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L9" t="n">
-        <v>443.7671209181035</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924706</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931308</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.283413522289</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1179.210445219441</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="C11" t="n">
-        <v>786.0349437223717</v>
+        <v>786.0349437223708</v>
       </c>
       <c r="D11" t="n">
-        <v>400.5938149390395</v>
+        <v>400.5938149390386</v>
       </c>
       <c r="E11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L11" t="n">
-        <v>503.6092283712875</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M11" t="n">
-        <v>1049.610128415868</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>1976.195900010237</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y11" t="n">
-        <v>1579.705190930838</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631995</v>
+        <v>1374.52913135418</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769802</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5163,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5179,31 +5181,31 @@
         <v>948.7599926430961</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>335.8859465029717</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1242.824038851968</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="C14" t="n">
-        <v>849.6485373548981</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D14" t="n">
-        <v>464.2074085715658</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E14" t="n">
-        <v>464.2074085715658</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2289.104914902732</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2289.104914902732</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1946.99810560625</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1946.99810560625</v>
       </c>
       <c r="X14" t="n">
-        <v>2039.809493642763</v>
+        <v>1946.99810560625</v>
       </c>
       <c r="Y14" t="n">
-        <v>1643.318784563364</v>
+        <v>1550.507396526852</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.69124027544166</v>
+        <v>306.3595905514212</v>
       </c>
       <c r="C16" t="n">
-        <v>77.69124027544166</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="D16" t="n">
-        <v>77.69124027544166</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="E16" t="n">
-        <v>77.69124027544166</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="F16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>77.69124027544166</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.69124027544166</v>
+        <v>491.5676092427225</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>432.7540988848759</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C17" t="n">
-        <v>432.7540988848759</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>1819.035227007271</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W17" t="n">
-        <v>1448.036191975559</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X17" t="n">
-        <v>1058.583586908615</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y17" t="n">
-        <v>662.0928778292166</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T19" t="n">
-        <v>386.3238676264566</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U19" t="n">
-        <v>100.8850758683575</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V19" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>771.6433069209571</v>
+        <v>1233.032792569768</v>
       </c>
       <c r="C20" t="n">
-        <v>771.6433069209571</v>
+        <v>839.8572910726987</v>
       </c>
       <c r="D20" t="n">
-        <v>386.2021781376249</v>
+        <v>839.8572910726987</v>
       </c>
       <c r="E20" t="n">
-        <v>386.2021781376249</v>
+        <v>839.8572910726987</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>422.9628526026764</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>422.9628526026764</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>1633.527538281165</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>1633.527538281165</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>1633.527538281165</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.1474259518279</v>
+        <v>1633.527538281165</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>194.5661265746813</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>678.1322124729945</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2374.714480598234</v>
+        <v>1945.59852570792</v>
       </c>
       <c r="C22" t="n">
-        <v>2204.509362664224</v>
+        <v>1775.393407773909</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664224</v>
+        <v>1619.760294676424</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S22" t="n">
-        <v>3081.0803428794</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T22" t="n">
-        <v>2845.361291047634</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U22" t="n">
-        <v>2559.922499289536</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V22" t="n">
-        <v>2559.922499289536</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W22" t="n">
-        <v>2559.922499289536</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X22" t="n">
-        <v>2559.922499289536</v>
+        <v>2353.918605582578</v>
       </c>
       <c r="Y22" t="n">
-        <v>2559.922499289536</v>
+        <v>2130.806544399221</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1581.713246888049</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="C23" t="n">
-        <v>1188.537745390979</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="D23" t="n">
-        <v>803.0966166076471</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="E23" t="n">
-        <v>803.0966166076471</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F23" t="n">
-        <v>386.2021781376249</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G23" t="n">
         <v>386.2021781376249</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6017,22 +6019,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2956.750346573015</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2700.997617007613</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205776</v>
+        <v>2358.890807711132</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.151306745788</v>
+        <v>1987.891772679419</v>
       </c>
       <c r="X23" t="n">
-        <v>2378.698701678845</v>
+        <v>1598.439167612476</v>
       </c>
       <c r="Y23" t="n">
-        <v>1982.207992599446</v>
+        <v>1201.948458533077</v>
       </c>
     </row>
     <row r="24">
@@ -6069,13 +6071,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N24" t="n">
         <v>1863.93438008877</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3105.956385205776</v>
+        <v>740.4540890623113</v>
       </c>
       <c r="C25" t="n">
-        <v>3105.956385205776</v>
+        <v>740.4540890623113</v>
       </c>
       <c r="D25" t="n">
-        <v>2950.323272108291</v>
+        <v>740.4540890623113</v>
       </c>
       <c r="E25" t="n">
-        <v>2794.764459967493</v>
+        <v>584.8952769215138</v>
       </c>
       <c r="F25" t="n">
-        <v>2637.438525180466</v>
+        <v>427.5693421344867</v>
       </c>
       <c r="G25" t="n">
-        <v>2469.184471279912</v>
+        <v>259.3152882339323</v>
       </c>
       <c r="H25" t="n">
-        <v>2313.705920241406</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y25" t="n">
-        <v>3105.956385205776</v>
+        <v>740.4540890623113</v>
       </c>
     </row>
     <row r="26">
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V26" t="n">
-        <v>2800.756377757424</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W26" t="n">
-        <v>2429.757342725712</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X26" t="n">
-        <v>2040.304737658769</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y26" t="n">
-        <v>1643.81402857937</v>
+        <v>1243.319282867973</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>223.043364776472</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
@@ -6412,22 +6414,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W28" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>446.1554259598287</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>223.043364776472</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2308.970930414981</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="C29" t="n">
-        <v>1915.795428917911</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D29" t="n">
-        <v>1530.354300134579</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E29" t="n">
-        <v>1127.770775251123</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F29" t="n">
-        <v>710.876336781101</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G29" t="n">
-        <v>297.7135812691042</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2777.129518959915</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>2777.129518959915</v>
       </c>
       <c r="V29" t="n">
-        <v>3105.956385205776</v>
+        <v>2435.022709663434</v>
       </c>
       <c r="W29" t="n">
-        <v>3105.956385205776</v>
+        <v>2064.023674631721</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.956385205776</v>
+        <v>2064.023674631721</v>
       </c>
       <c r="Y29" t="n">
-        <v>2709.465676126377</v>
+        <v>1667.532965552322</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6542,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>596.176270190801</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M30" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N30" t="n">
         <v>1223.947919817482</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2841.384956875024</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2671.179838941013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2515.546725843527</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2359.98791370273</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2359.98791370273</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2359.98791370273</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>3026.592975566325</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>950.6597514544419</v>
+        <v>979.0728748920524</v>
       </c>
       <c r="C32" t="n">
-        <v>557.4842499573724</v>
+        <v>585.897373394983</v>
       </c>
       <c r="D32" t="n">
-        <v>172.0431211740402</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="E32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U32" t="n">
-        <v>2850.203655640375</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V32" t="n">
-        <v>2508.096846343894</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W32" t="n">
-        <v>2137.097811312181</v>
+        <v>1776.058329682848</v>
       </c>
       <c r="X32" t="n">
-        <v>1747.645206245238</v>
+        <v>1776.058329682848</v>
       </c>
       <c r="Y32" t="n">
-        <v>1351.154497165839</v>
+        <v>1379.567620603449</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1490.311599914302</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>2146.089571124861</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2374.714480598234</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="W34" t="n">
-        <v>2822.625983136954</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="X34" t="n">
-        <v>2783.034560472892</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="Y34" t="n">
-        <v>2559.922499289536</v>
+        <v>543.2579285324946</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>937.702050557157</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="C35" t="n">
-        <v>937.702050557157</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D35" t="n">
-        <v>937.702050557157</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E35" t="n">
-        <v>937.702050557157</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U35" t="n">
-        <v>2422.196584426364</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V35" t="n">
-        <v>2080.089775129883</v>
+        <v>2341.583291284944</v>
       </c>
       <c r="W35" t="n">
-        <v>1709.09074009817</v>
+        <v>1970.584256253232</v>
       </c>
       <c r="X35" t="n">
-        <v>1319.638135031227</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="Y35" t="n">
-        <v>937.702050557157</v>
+        <v>1618.8428970031</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7016,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>207.7175872278004</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>691.2836731261136</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M36" t="n">
-        <v>1319.055322752795</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N36" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
         <v>1974.833293963354</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.8176112395708</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C37" t="n">
-        <v>128.8176112395708</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D37" t="n">
-        <v>128.8176112395708</v>
+        <v>831.8309049339227</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8176112395708</v>
+        <v>676.2720927931252</v>
       </c>
       <c r="F37" t="n">
-        <v>128.8176112395708</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="G37" t="n">
-        <v>128.8176112395708</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7126,19 +7128,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V37" t="n">
-        <v>412.1480133083932</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W37" t="n">
-        <v>128.8176112395708</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X37" t="n">
-        <v>128.8176112395708</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.8176112395708</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1372.905047278128</v>
+        <v>2281.458604912366</v>
       </c>
       <c r="C38" t="n">
-        <v>1372.905047278128</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D38" t="n">
-        <v>987.463918494796</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E38" t="n">
-        <v>584.8803936113404</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F38" t="n">
-        <v>167.9859551413182</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,22 +7204,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T38" t="n">
-        <v>2901.449916432349</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U38" t="n">
-        <v>2901.449916432349</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V38" t="n">
-        <v>2559.343107135867</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W38" t="n">
-        <v>2559.343107135867</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X38" t="n">
-        <v>2169.890502068924</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y38" t="n">
-        <v>1773.399792989525</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7253,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M39" t="n">
-        <v>1009.629923393023</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N39" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="C40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="D40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="E40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="F40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411553</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>2234.887632838122</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>954.3471090119856</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S40" t="n">
-        <v>751.531025194535</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="T40" t="n">
-        <v>515.8119733627691</v>
+        <v>2543.520260189137</v>
       </c>
       <c r="U40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="V40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="W40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="X40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="Y40" t="n">
-        <v>230.37318160467</v>
+        <v>2523.46060923955</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>912.1052853073743</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C41" t="n">
-        <v>518.9297838103048</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D41" t="n">
-        <v>518.9297838103048</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>518.9297838103048</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
         <v>475.2818832161124</v>
@@ -7436,25 +7438,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U41" t="n">
-        <v>2422.196584426364</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V41" t="n">
-        <v>2080.089775129883</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W41" t="n">
-        <v>1709.09074009817</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X41" t="n">
-        <v>1709.09074009817</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y41" t="n">
-        <v>1312.600031018771</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>900.7358324498676</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>1220.474978512094</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>1588.041672813646</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>2215.813322440327</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>2871.591293650886</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2871.591293650886</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7591,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>636.8490770607943</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>636.8490770607943</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>636.8490770607943</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>877.3701640835627</v>
+        <v>1243.319282867973</v>
       </c>
       <c r="C44" t="n">
-        <v>877.3701640835627</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="D44" t="n">
-        <v>877.3701640835627</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.64850507718</v>
+        <v>2800.756377757424</v>
       </c>
       <c r="W44" t="n">
-        <v>2063.808223941302</v>
+        <v>2429.757342725712</v>
       </c>
       <c r="X44" t="n">
-        <v>1674.355618874358</v>
+        <v>2040.304737658769</v>
       </c>
       <c r="Y44" t="n">
-        <v>1277.86490979496</v>
+        <v>1643.81402857937</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415751</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016672</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231476</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340353</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.057458417167</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890315</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963223</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>194.5661265746817</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>678.132212472995</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M45" t="n">
-        <v>1263.630217479597</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1849.128222486199</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>2365.64850507718</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825364</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>528.7100132738371</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="C46" t="n">
-        <v>358.5048953398264</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="D46" t="n">
-        <v>202.8717822423411</v>
+        <v>663.5768510333683</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>508.0180388925707</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S46" t="n">
-        <v>948.7599926430961</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="T46" t="n">
-        <v>948.7599926430961</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="U46" t="n">
-        <v>948.7599926430961</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="V46" t="n">
-        <v>948.7599926430961</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="W46" t="n">
-        <v>948.7599926430961</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="X46" t="n">
-        <v>937.0300931484951</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="Y46" t="n">
-        <v>713.9180319651384</v>
+        <v>819.2099641308535</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7987,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>663.8430986641865</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>369.9375821741921</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,10 +8066,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>674.5394322581658</v>
+        <v>560.2818744604606</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8216,10 +8218,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>281.329912376922</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8297,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
-        <v>239.189668109085</v>
+        <v>325.9393879617826</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>468.0425993879824</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>359.0336792489994</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,22 +8537,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>490.5190850554636</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,16 +8692,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>458.1505014870037</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8708,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,19 +8771,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>422.8212561536983</v>
+        <v>621.5900809302176</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8927,7 +8929,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
@@ -8939,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9003,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>270.6001074205025</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9164,10 +9166,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9176,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9243,16 +9245,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N18" t="n">
-        <v>415.8062469585524</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9419,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,22 +9482,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>238.3374974274118</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9717,7 +9719,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,7 +9728,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,22 +9956,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10188,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10367,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10425,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>575.5973938481089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,22 +10664,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>236.6660863673584</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>747.298629845933</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10841,7 +10843,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
@@ -10911,10 +10913,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O39" t="n">
-        <v>168.5060516210921</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3398360504046</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11309,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,22 +11378,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>238.3374974274122</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>222.2460966637776</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>16.10511988344484</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -22601,16 +22603,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>2.631582315150752</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,13 +22722,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -22790,7 +22792,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22799,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>353.1295922897818</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>101.5991674796005</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -23075,19 +23077,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>192.174729516427</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>375.9962127987819</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23236,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>369.6518731746742</v>
+        <v>48.8096532455009</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -23273,7 +23275,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23419,7 +23421,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23546,19 +23548,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>145.4874421434748</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>62.97745769620093</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23662,7 +23664,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>67.79958794844862</v>
       </c>
       <c r="G16" t="n">
         <v>166.5715133615489</v>
@@ -23674,7 +23676,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>169.4444070993856</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
@@ -23789,16 +23791,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>103.4214787759271</v>
       </c>
     </row>
     <row r="18">
@@ -23941,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>227.4607133389883</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>246.5007204137208</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>85.90258199151256</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24023,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24175,13 +24177,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>176.1606410761638</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24190,10 +24192,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>220.1269184951914</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24257,16 +24259,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>73.55161816974348</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>32.86201700600714</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,13 +24381,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.5375351850543</v>
       </c>
       <c r="I25" t="n">
-        <v>23.65888910788279</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>36.53773382964818</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>316.9701383469835</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24603,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>140.9515531623306</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24619,7 +24621,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24652,22 +24654,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>87.60371089983551</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>98.18840291846848</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24853,7 +24855,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24889,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.3111650284663</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>289.7329360993955</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -24935,7 +24937,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>28.68492911149792</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>140.7066242704315</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
@@ -25135,13 +25137,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>192.5440105574257</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>37.33413335864299</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.4090783592759</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25315,22 +25317,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788266</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>87.89226682802024</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25366,13 +25368,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>251.7946588858835</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>304.2229687940462</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25561,16 +25563,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>113.5351286524033</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>262.7253494004272</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>369.5140724970715</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>189.9325545642683</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>104.1570507073738</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25922,10 +25924,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>36.53773382964818</v>
       </c>
       <c r="W44" t="n">
-        <v>68.46716635687545</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>180.5372781993586</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
@@ -26086,10 +26088,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>220.1269184951917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633017.5854385437</v>
+        <v>633017.5854385432</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633017.5854385438</v>
+        <v>633017.5854385432</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633017.5854385438</v>
+        <v>633017.5854385436</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>713175.0814841851</v>
+        <v>633017.5854385432</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>713175.0814841848</v>
+        <v>713175.0814841852</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>713175.0814841848</v>
+        <v>713175.0814841849</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713175.0814841849</v>
+        <v>713175.0814841848</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633017.5854385435</v>
+        <v>713175.0814841848</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="C2" t="n">
         <v>203273.217848435</v>
@@ -26323,28 +26325,28 @@
         <v>203273.2178484351</v>
       </c>
       <c r="F2" t="n">
-        <v>203273.217848435</v>
+        <v>203273.2178484351</v>
       </c>
       <c r="G2" t="n">
         <v>203273.217848435</v>
       </c>
       <c r="H2" t="n">
-        <v>229000.8148323085</v>
+        <v>203273.2178484351</v>
       </c>
       <c r="I2" t="n">
         <v>229000.8148323085</v>
       </c>
       <c r="J2" t="n">
+        <v>229000.8148323084</v>
+      </c>
+      <c r="K2" t="n">
         <v>229000.8148323085</v>
-      </c>
-      <c r="K2" t="n">
-        <v>229000.8148323084</v>
       </c>
       <c r="L2" t="n">
         <v>229000.8148323085</v>
       </c>
       <c r="M2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="N2" t="n">
         <v>229000.8148323084</v>
@@ -26353,7 +26355,7 @@
         <v>229000.8148323084</v>
       </c>
       <c r="P2" t="n">
-        <v>203273.2178484352</v>
+        <v>229000.8148323085</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>49215.85294791916</v>
       </c>
       <c r="J3" t="n">
         <v>154739.4343656034</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="C4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="D4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="E4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="F4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="G4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="H4" t="n">
-        <v>52165.99257608331</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="I4" t="n">
         <v>52165.99257608331</v>
@@ -26451,13 +26453,13 @@
         <v>52165.99257608331</v>
       </c>
       <c r="N4" t="n">
-        <v>52165.99257608332</v>
+        <v>52165.99257608331</v>
       </c>
       <c r="O4" t="n">
-        <v>52165.99257608332</v>
+        <v>52165.99257608331</v>
       </c>
       <c r="P4" t="n">
-        <v>46245.16569024822</v>
+        <v>52165.99257608331</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110753.2111107312</v>
+        <v>-110753.2111107311</v>
       </c>
       <c r="C6" t="n">
         <v>87442.59488101365</v>
@@ -26531,28 +26533,28 @@
         <v>121070.1948810138</v>
       </c>
       <c r="F6" t="n">
-        <v>121070.1948810137</v>
+        <v>121070.1948810138</v>
       </c>
       <c r="G6" t="n">
         <v>121070.1948810137</v>
       </c>
       <c r="H6" t="n">
-        <v>79688.85299369329</v>
+        <v>121070.1948810138</v>
       </c>
       <c r="I6" t="n">
+        <v>80408.43225317821</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-25115.14916450606</v>
+      </c>
+      <c r="K6" t="n">
         <v>129624.2852010974</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-25115.14916450607</v>
-      </c>
-      <c r="K6" t="n">
-        <v>129624.2852010973</v>
       </c>
       <c r="L6" t="n">
         <v>129624.2852010974</v>
       </c>
       <c r="M6" t="n">
-        <v>129624.2852010973</v>
+        <v>129624.2852010974</v>
       </c>
       <c r="N6" t="n">
         <v>129624.2852010973</v>
@@ -26561,7 +26563,7 @@
         <v>129624.2852010973</v>
       </c>
       <c r="P6" t="n">
-        <v>121070.1948810138</v>
+        <v>129624.2852010974</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,19 +34707,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>514.1180470664593</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>220.3737447500957</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>582.1523102088539</v>
+        <v>467.8947524111487</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34936,10 +34938,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464304</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
-        <v>146.5021092201961</v>
+        <v>233.2518290728937</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>314.7944296574907</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>209.469841824903</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>400.4587381985453</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>309.0320101492196</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35428,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>330.4341341043864</v>
+        <v>529.2029588809057</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
@@ -35659,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>178.2129853711906</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35896,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N18" t="n">
-        <v>330.4341341043857</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35983,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36139,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>148.7405620940785</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,7 +36448,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37087,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>485.5370469911907</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>661.9265169917663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37561,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,10 +37633,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O39" t="n">
-        <v>75.81849273220321</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>371.2794891934864</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
@@ -38029,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>148.7405620940789</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655271.7483466016</v>
+        <v>649994.0190607307</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238723</v>
+        <v>2688149.654238721</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.13846177</v>
+        <v>8966943.138461765</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7746177.077014608</v>
+        <v>7746177.07701461</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>396.6203742018772</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.4482219958026</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>165.8714844395199</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>179.2591794543597</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>105.2316673515944</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>283.9589115366733</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>61.02047275332036</v>
+        <v>74.06153680085404</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>179.4080122938798</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>113.1667354347867</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>278.3561610779096</v>
       </c>
       <c r="E11" t="n">
-        <v>349.74803638912</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>75.77815427270274</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>195.3213725167832</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>87.95308749070816</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.160138097149472</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>289.1043232126777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>23.07869429521003</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2064,10 +2064,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>194.2210733020509</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>234.9396379376617</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>11.61260049965533</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>147.713978246434</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>33.38623034306661</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>206.6890709537358</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>352.196046038001</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -2611,7 +2611,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.55566364162141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2775,10 +2775,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>113.1667354347865</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>291.8070562034443</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>123.077193497709</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -3015,7 +3015,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>214.57127496357</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -3085,16 +3085,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>338.6041155698975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>92.65523704301675</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3283,10 +3283,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>269.6054949885472</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>348.2239456576307</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>130.4178928586277</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>137.4490875962152</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3520,10 +3520,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>324.0170396777571</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>142.9126242536663</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>19.85905444009087</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>307.3383430960068</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
@@ -3790,22 +3790,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>195.6255244520054</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>130.4178928586277</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -3985,7 +3985,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>302.1480073738686</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -4045,7 +4045,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>16.31738760860825</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>20.25064477991757</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1226.556240989902</v>
+        <v>1408.882782488167</v>
       </c>
       <c r="C2" t="n">
-        <v>833.3807394928326</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="D2" t="n">
-        <v>447.9396107095004</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="E2" t="n">
-        <v>447.9396107095004</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154359</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415867</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.421412053329</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.648505077179</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V2" t="n">
-        <v>2023.541695780698</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="W2" t="n">
-        <v>2023.541695780698</v>
+        <v>1515.396138039483</v>
       </c>
       <c r="X2" t="n">
-        <v>2023.541695780698</v>
+        <v>1408.882782488167</v>
       </c>
       <c r="Y2" t="n">
-        <v>1627.050986701299</v>
+        <v>1408.882782488167</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L3" t="n">
-        <v>160.427952321271</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083082</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>540.4399127684381</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="C4" t="n">
-        <v>372.8929587891251</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="D4" t="n">
-        <v>372.8929587891251</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="E4" t="n">
-        <v>372.8929587891251</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F4" t="n">
-        <v>215.567024002098</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>643.7891250389462</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>643.7891250389462</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="Y4" t="n">
-        <v>725.6479314597394</v>
+        <v>358.3503332808472</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460.4757256135405</v>
+        <v>1771.689431236809</v>
       </c>
       <c r="C5" t="n">
-        <v>460.4757256135405</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D5" t="n">
-        <v>460.4757256135405</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E5" t="n">
-        <v>460.4757256135405</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F5" t="n">
         <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.57585191238</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2142.147902636596</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>1886.395173071195</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V5" t="n">
-        <v>1544.288363774713</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W5" t="n">
-        <v>1544.288363774713</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="X5" t="n">
-        <v>1257.461180404336</v>
+        <v>1771.689431236809</v>
       </c>
       <c r="Y5" t="n">
-        <v>860.9704713249373</v>
+        <v>1771.689431236809</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
+        <v>963.7331842818107</v>
+      </c>
+      <c r="N6" t="n">
         <v>1549.231189288413</v>
       </c>
-      <c r="N6" t="n">
-        <v>2134.729194295015</v>
-      </c>
       <c r="O6" t="n">
-        <v>2365.648505077179</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154359</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154359</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.453214517072</v>
+        <v>1725.23146020794</v>
       </c>
       <c r="C8" t="n">
-        <v>1201.453214517072</v>
+        <v>1725.23146020794</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.453214517072</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936231</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>2304.011663912209</v>
+        <v>2067.338269504421</v>
       </c>
       <c r="V8" t="n">
-        <v>1961.904854615728</v>
+        <v>1725.23146020794</v>
       </c>
       <c r="W8" t="n">
-        <v>1590.905819584015</v>
+        <v>1725.23146020794</v>
       </c>
       <c r="X8" t="n">
-        <v>1201.453214517072</v>
+        <v>1725.23146020794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.453214517072</v>
+        <v>1725.23146020794</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.3129701015436</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.3129701015436</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4989,25 +4989,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>427.6021490532311</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6228038740554</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1179.21044521944</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="C11" t="n">
-        <v>786.0349437223708</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="D11" t="n">
-        <v>400.5938149390386</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154359</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.57585191238</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.615452804709</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="X11" t="n">
-        <v>1976.195900010236</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="Y11" t="n">
-        <v>1579.705190930837</v>
+        <v>2023.541695780699</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1374.52913135418</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N12" t="n">
-        <v>1960.027136360782</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.648505077179</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>335.8859465029717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5226,25 +5226,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1150.012650815455</v>
+        <v>1169.999904830382</v>
       </c>
       <c r="C14" t="n">
-        <v>756.8371493183852</v>
+        <v>1169.999904830382</v>
       </c>
       <c r="D14" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E14" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F14" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G14" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>358.4764287842793</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L14" t="n">
-        <v>851.7967205028082</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.797620547389</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N14" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2289.104914902732</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U14" t="n">
-        <v>2289.104914902732</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V14" t="n">
-        <v>1946.99810560625</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W14" t="n">
-        <v>1946.99810560625</v>
+        <v>1570.494650541779</v>
       </c>
       <c r="X14" t="n">
-        <v>1946.99810560625</v>
+        <v>1570.494650541779</v>
       </c>
       <c r="Y14" t="n">
-        <v>1550.507396526852</v>
+        <v>1570.494650541779</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>160.427952321271</v>
+        <v>140.0776713099947</v>
       </c>
       <c r="K15" t="n">
-        <v>480.1670983834974</v>
+        <v>140.0776713099947</v>
       </c>
       <c r="L15" t="n">
-        <v>963.7331842818107</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.164039799289</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O15" t="n">
         <v>1725.662044805891</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306.3595905514212</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>136.1544726174104</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>136.1544726174104</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>136.1544726174104</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>714.6796704260792</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>491.5676092427225</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1673.129190464088</v>
+        <v>843.5801875028258</v>
       </c>
       <c r="C17" t="n">
-        <v>1279.953688967018</v>
+        <v>843.5801875028258</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>458.1390587194935</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>55.55553383603802</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>55.55553383603802</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>55.55553383603802</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.648505077179</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.648505077179</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.648505077179</v>
+        <v>1244.074933214223</v>
       </c>
       <c r="Y17" t="n">
-        <v>2073.623936175485</v>
+        <v>1244.074933214223</v>
       </c>
     </row>
     <row r="18">
@@ -5588,13 +5588,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
         <v>367.0521161637701</v>
@@ -5603,10 +5603,10 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.14176221491</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.14176221491</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O18" t="n">
         <v>1725.662044805891</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5697,28 +5697,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>598.7311070388184</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>313.2923152807194</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V19" t="n">
-        <v>47.31297010154359</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154359</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1233.032792569768</v>
+        <v>1780.012997684933</v>
       </c>
       <c r="C20" t="n">
-        <v>839.8572910726987</v>
+        <v>1386.837496187864</v>
       </c>
       <c r="D20" t="n">
-        <v>839.8572910726987</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="E20" t="n">
-        <v>839.8572910726987</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="F20" t="n">
-        <v>422.9628526026764</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G20" t="n">
-        <v>422.9628526026764</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H20" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K20" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>503.6092283712866</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1049.610128415867</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N20" t="n">
-        <v>1577.421412053329</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2199.13495001823</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>1975.634347577647</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>1975.634347577647</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>1633.527538281165</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W20" t="n">
-        <v>1633.527538281165</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X20" t="n">
-        <v>1633.527538281165</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y20" t="n">
-        <v>1633.527538281165</v>
+        <v>1976.195900010237</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
-        <v>194.5661265746813</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>678.1322124729945</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>1263.630217479596</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N21" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1945.59852570792</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>1775.393407773909</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>1619.760294676424</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>2365.648505077179</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V22" t="n">
-        <v>2365.648505077179</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W22" t="n">
-        <v>2365.648505077179</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X22" t="n">
-        <v>2353.918605582578</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>2130.806544399221</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1201.948458533077</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C23" t="n">
-        <v>1201.948458533077</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D23" t="n">
-        <v>1201.948458533077</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>799.3649336496217</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6019,22 +6019,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2956.750346573015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>2700.997617007613</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2358.890807711132</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>1987.891772679419</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>1598.439167612476</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y23" t="n">
-        <v>1201.948458533077</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>584.8952769215138</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>427.5693421344867</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>259.3152882339323</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
         <v>62.11912770411553</v>
@@ -6171,28 +6171,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>554.2263691201458</v>
       </c>
       <c r="V25" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1243.319282867973</v>
+        <v>1613.383778311106</v>
       </c>
       <c r="C26" t="n">
-        <v>850.1437813709033</v>
+        <v>1220.208276814037</v>
       </c>
       <c r="D26" t="n">
-        <v>464.702652587571</v>
+        <v>834.7671480307044</v>
       </c>
       <c r="E26" t="n">
-        <v>62.11912770411553</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F26" t="n">
         <v>62.11912770411553</v>
@@ -6250,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T26" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U26" t="n">
-        <v>2422.196584426364</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V26" t="n">
-        <v>2080.089775129883</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="W26" t="n">
-        <v>1709.09074009817</v>
+        <v>2002.83638337805</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.638135031227</v>
+        <v>1613.383778311106</v>
       </c>
       <c r="Y26" t="n">
-        <v>1243.319282867973</v>
+        <v>1613.383778311106</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6414,16 +6414,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>442.408306655803</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V28" t="n">
-        <v>176.4289614766272</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W28" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X28" t="n">
         <v>62.11912770411553</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1267.038219840925</v>
+        <v>912.1052853073743</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.038219840925</v>
+        <v>912.1052853073743</v>
       </c>
       <c r="D29" t="n">
-        <v>881.5970910575932</v>
+        <v>617.350683081673</v>
       </c>
       <c r="E29" t="n">
-        <v>479.0135661741377</v>
+        <v>617.350683081673</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411551</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411551</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411551</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6493,22 +6493,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>2777.129518959915</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2777.129518959915</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2435.022709663434</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>2064.023674631721</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>2064.023674631721</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="Y29" t="n">
-        <v>1667.532965552322</v>
+        <v>1312.600031018771</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>494.9732559860694</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>1122.744905612751</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
         <v>1223.947919817482</v>
@@ -6651,16 +6651,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>611.4288749521137</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X31" t="n">
         <v>62.11912770411553</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>979.0728748920524</v>
+        <v>1491.511254134026</v>
       </c>
       <c r="C32" t="n">
-        <v>585.897373394983</v>
+        <v>1098.335752636957</v>
       </c>
       <c r="D32" t="n">
-        <v>200.4562446116507</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E32" t="n">
-        <v>200.4562446116507</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>2460.189498140842</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V32" t="n">
-        <v>2118.082688844361</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W32" t="n">
-        <v>1776.058329682848</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X32" t="n">
-        <v>1776.058329682848</v>
+        <v>2288.496708924822</v>
       </c>
       <c r="Y32" t="n">
-        <v>1379.567620603449</v>
+        <v>1892.005999845423</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
         <v>62.11912770411553</v>
@@ -6882,28 +6882,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>543.2579285324946</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>543.2579285324946</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>543.2579285324946</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W34" t="n">
-        <v>543.2579285324946</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X34" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1618.8428970031</v>
+        <v>1696.017722907454</v>
       </c>
       <c r="C35" t="n">
-        <v>1618.8428970031</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="D35" t="n">
-        <v>1618.8428970031</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="E35" t="n">
-        <v>1216.259372119644</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="F35" t="n">
-        <v>799.3649336496217</v>
+        <v>885.9477829403619</v>
       </c>
       <c r="G35" t="n">
-        <v>386.2021781376249</v>
+        <v>472.785027428365</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U35" t="n">
-        <v>2683.690100581426</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V35" t="n">
-        <v>2341.583291284944</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W35" t="n">
-        <v>1970.584256253232</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X35" t="n">
-        <v>1618.8428970031</v>
+        <v>2493.00317769825</v>
       </c>
       <c r="Y35" t="n">
-        <v>1618.8428970031</v>
+        <v>2096.512468618851</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>175.2341099238429</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>803.0057595505241</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>831.8309049339227</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>676.2720927931252</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7128,19 +7128,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W37" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2281.458604912366</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C38" t="n">
-        <v>2142.621142693967</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D38" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7201,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>2677.949313991765</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V38" t="n">
-        <v>2677.949313991765</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="W38" t="n">
-        <v>2677.949313991765</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="X38" t="n">
-        <v>2677.949313991765</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y38" t="n">
-        <v>2281.458604912366</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>175.2341099238429</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>803.0057595505241</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2523.46060923955</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="C40" t="n">
-        <v>2523.46060923955</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="D40" t="n">
-        <v>2523.46060923955</v>
+        <v>663.5768510333683</v>
       </c>
       <c r="E40" t="n">
-        <v>2523.46060923955</v>
+        <v>508.0180388925707</v>
       </c>
       <c r="F40" t="n">
-        <v>2523.46060923955</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="G40" t="n">
-        <v>2523.46060923955</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="H40" t="n">
-        <v>2367.982058201044</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I40" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>2779.239312020903</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="T40" t="n">
-        <v>2543.520260189137</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="U40" t="n">
-        <v>2523.46060923955</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="V40" t="n">
-        <v>2523.46060923955</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="W40" t="n">
-        <v>2523.46060923955</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="X40" t="n">
-        <v>2523.46060923955</v>
+        <v>819.2099641308535</v>
       </c>
       <c r="Y40" t="n">
-        <v>2523.46060923955</v>
+        <v>819.2099641308535</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2073.376476849992</v>
+        <v>868.4573847131819</v>
       </c>
       <c r="C41" t="n">
-        <v>1680.200975352922</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.75984656959</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861347</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F41" t="n">
         <v>475.2818832161124</v>
@@ -7438,25 +7438,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T41" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U41" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V41" t="n">
-        <v>3067.963471491298</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W41" t="n">
-        <v>3067.963471491298</v>
+        <v>1964.843469663571</v>
       </c>
       <c r="X41" t="n">
-        <v>2870.361931640788</v>
+        <v>1575.390864596628</v>
       </c>
       <c r="Y41" t="n">
-        <v>2473.871222561389</v>
+        <v>1178.900155517229</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>831.8309049339227</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>676.2720927931252</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7602,19 +7602,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V43" t="n">
-        <v>412.1480133083932</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W43" t="n">
-        <v>128.8176112395708</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1243.319282867973</v>
+        <v>1303.155925325562</v>
       </c>
       <c r="C44" t="n">
-        <v>850.1437813709033</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="D44" t="n">
-        <v>464.702652587571</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E44" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F44" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7672,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V44" t="n">
-        <v>2800.756377757424</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W44" t="n">
-        <v>2429.757342725712</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X44" t="n">
-        <v>2040.304737658769</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.81402857937</v>
+        <v>1303.155925325562</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>819.2099641308535</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>819.2099641308535</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>663.5768510333683</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>508.0180388925707</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7830,28 +7830,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>819.2099641308535</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>819.2099641308535</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U46" t="n">
-        <v>819.2099641308535</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V46" t="n">
-        <v>819.2099641308535</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>819.2099641308535</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
-        <v>819.2099641308535</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>819.2099641308535</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>603.2495781888792</v>
       </c>
       <c r="M2" t="n">
-        <v>663.8430986641865</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -7996,7 +7996,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8057,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>560.2818744604606</v>
+        <v>422.8212561536983</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8218,19 +8218,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>281.329912376922</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>394.3609707612346</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8303,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9393879617826</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>359.0336792489994</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585524</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8692,7 +8692,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8701,7 +8701,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>458.1505014870037</v>
+        <v>282.2547480662842</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>621.5900809302176</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8929,10 +8929,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>457.3649271011926</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8944,10 +8944,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,22 +9005,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>176.1461757257082</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>270.6001074205025</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>470.2375325962349</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9251,13 +9251,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046925</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577837</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9403,10 +9403,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9415,10 +9415,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
         <v>144.4986984183922</v>
@@ -9482,25 +9482,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>238.3374974274118</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>459.8553156798577</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9956,25 +9956,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10132,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N30" t="n">
-        <v>187.5973797276328</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10366,10 +10366,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N33" t="n">
-        <v>345.5977578821532</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10603,10 +10603,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
-        <v>747.298629845933</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>510.5662141339224</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>454.5321323046928</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11375,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>16.10511988344484</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>280.1098570204712</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>2.631582315150752</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>21.52874352491645</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22773,7 +22773,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>284.0120791305043</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>101.5991674796005</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23026,7 +23026,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>192.174729516427</v>
+        <v>179.1336654688933</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23229,22 +23229,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>103.1763915466382</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>103.2305564175894</v>
       </c>
       <c r="E11" t="n">
-        <v>48.8096532455009</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -23466,16 +23466,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>145.4874421434748</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>171.9676721646122</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23664,7 +23664,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>67.79958794844862</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>166.5715133615489</v>
@@ -23706,22 +23706,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>312.6820818320248</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23782,25 +23782,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>103.4214787759271</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>210.2831670182382</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>202.268724952232</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>85.90258199151256</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24183,19 +24183,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>220.1269184951914</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24259,16 +24259,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>73.55161816974348</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,22 +24372,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>120.5375351850543</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
@@ -24420,19 +24420,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>56.6304807736482</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>46.36164359661984</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>316.9701383469835</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24654,7 +24654,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24685,10 +24685,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>89.77966129205464</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>98.18840291846848</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>167.0154425319289</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
@@ -24937,7 +24937,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>28.68492911149792</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>140.7066242704315</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>51.23672494062703</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>37.33413335864299</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>23.65888910788266</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25368,16 +25368,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>251.7946588858835</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25456,7 +25456,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>61.54103933851661</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25572,7 +25572,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.87529872560978</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>262.7253494004272</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>89.15145515827606</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>189.9325545642683</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788266</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -25842,16 +25842,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>165.708020294746</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25882,10 +25882,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>36.53773382964818</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>376.2084143799966</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>180.5372781993586</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633017.5854385432</v>
+        <v>633017.5854385436</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>633017.5854385438</v>
+        <v>633017.5854385437</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>633017.5854385438</v>
+        <v>633017.5854385437</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633017.5854385433</v>
+        <v>633017.5854385438</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633017.5854385432</v>
+        <v>633017.5854385438</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633017.5854385436</v>
+        <v>633017.5854385439</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633017.5854385432</v>
+        <v>633017.5854385437</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>713175.0814841852</v>
+        <v>713175.0814841847</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>713175.0814841849</v>
+        <v>713175.0814841851</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>713175.0814841851</v>
+        <v>713175.0814841848</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>713175.0814841849</v>
+        <v>713175.0814841851</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>713175.0814841848</v>
+        <v>713175.0814841849</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>203273.217848435</v>
       </c>
       <c r="E2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="F2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="G2" t="n">
         <v>203273.217848435</v>
@@ -26334,19 +26334,19 @@
         <v>203273.2178484351</v>
       </c>
       <c r="I2" t="n">
+        <v>229000.8148323084</v>
+      </c>
+      <c r="J2" t="n">
         <v>229000.8148323085</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>229000.8148323084</v>
-      </c>
-      <c r="K2" t="n">
-        <v>229000.8148323085</v>
       </c>
       <c r="L2" t="n">
         <v>229000.8148323085</v>
       </c>
       <c r="M2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="N2" t="n">
         <v>229000.8148323084</v>
@@ -26355,7 +26355,7 @@
         <v>229000.8148323084</v>
       </c>
       <c r="P2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>49215.85294791916</v>
+        <v>49215.85294791909</v>
       </c>
       <c r="J3" t="n">
         <v>154739.4343656034</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="C4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="D4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="E4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="F4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="G4" t="n">
         <v>46245.16569024821</v>
@@ -26447,10 +26447,10 @@
         <v>52165.99257608331</v>
       </c>
       <c r="L4" t="n">
-        <v>52165.99257608331</v>
+        <v>52165.99257608332</v>
       </c>
       <c r="M4" t="n">
-        <v>52165.99257608331</v>
+        <v>52165.99257608332</v>
       </c>
       <c r="N4" t="n">
         <v>52165.99257608331</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
         <v>47210.5370551278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110753.2111107311</v>
+        <v>-111427.2372369513</v>
       </c>
       <c r="C6" t="n">
-        <v>87442.59488101365</v>
+        <v>86768.56875479367</v>
       </c>
       <c r="D6" t="n">
-        <v>87442.59488101368</v>
+        <v>86768.56875479367</v>
       </c>
       <c r="E6" t="n">
-        <v>121070.1948810138</v>
+        <v>120396.1687547936</v>
       </c>
       <c r="F6" t="n">
-        <v>121070.1948810138</v>
+        <v>120396.1687547936</v>
       </c>
       <c r="G6" t="n">
-        <v>121070.1948810137</v>
+        <v>120396.1687547937</v>
       </c>
       <c r="H6" t="n">
-        <v>121070.1948810138</v>
+        <v>120396.1687547937</v>
       </c>
       <c r="I6" t="n">
-        <v>80408.43225317821</v>
+        <v>79877.33722131305</v>
       </c>
       <c r="J6" t="n">
-        <v>-25115.14916450606</v>
+        <v>-25646.24419637123</v>
       </c>
       <c r="K6" t="n">
-        <v>129624.2852010974</v>
+        <v>129093.1901692322</v>
       </c>
       <c r="L6" t="n">
-        <v>129624.2852010974</v>
+        <v>129093.1901692322</v>
       </c>
       <c r="M6" t="n">
-        <v>129624.2852010974</v>
+        <v>129093.1901692322</v>
       </c>
       <c r="N6" t="n">
-        <v>129624.2852010973</v>
+        <v>129093.1901692322</v>
       </c>
       <c r="O6" t="n">
-        <v>129624.2852010973</v>
+        <v>129093.1901692321</v>
       </c>
       <c r="P6" t="n">
-        <v>129624.2852010974</v>
+        <v>129093.1901692322</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>450.0014084583875</v>
       </c>
       <c r="M2" t="n">
-        <v>514.1180470664593</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34716,7 +34716,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>467.8947524111487</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>128.0817426464304</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35023,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>233.2518290728937</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>209.469841824903</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043857</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35421,7 +35421,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>309.0320101492196</v>
+        <v>133.1362567285001</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>529.2029588809057</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>314.3065239219553</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35664,10 +35664,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>93.70171839237487</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>178.2129853711906</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>292.4705431688948</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36135,10 +36135,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>148.7405620940785</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36445,19 +36445,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>374.483202825691</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2252668734662</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37086,10 +37086,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N33" t="n">
-        <v>260.2256450279866</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37323,10 +37323,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
-        <v>661.9265169917663</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>425.1941012797557</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>362.1450102553808</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38116,7 +38116,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
